--- a/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
+++ b/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/Description_of_Components/Cavo_ENEA_input_whole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_2_ENEA_HTS_CICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{03E8E899-2F43-4A55-8027-7509F735F6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11BC7D82-68D0-4D9B-AF3D-668E290E765D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B21E0-384E-4501-A0C4-CBB53B27F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONDUCTOR_files" sheetId="6" r:id="rId1"/>
     <sheet name="CONDUCTOR_input" sheetId="10" r:id="rId2"/>
-    <sheet name="CONDUCTOR_COUPLING" sheetId="8" r:id="rId3"/>
+    <sheet name="CONDUCTOR_opertation" sheetId="11" r:id="rId3"/>
+    <sheet name="CONDUCTOR_coupling" sheetId="8" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
-  <si>
-    <t>XLENGTH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>m</t>
   </si>
@@ -52,18 +50,12 @@
     <t>A</t>
   </si>
   <si>
-    <t>IOPFUN</t>
-  </si>
-  <si>
     <t>flag</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>TAUDUM</t>
-  </si>
-  <si>
     <t>STRUCTURE_ELEMENTS</t>
   </si>
   <si>
@@ -106,15 +98,9 @@
     <t>Q_file_dummy.xlsx</t>
   </si>
   <si>
-    <t>MAXNOD</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>IOP0_TOT</t>
-  </si>
-  <si>
     <t>I_file_dummy.xlsx</t>
   </si>
   <si>
@@ -136,9 +122,6 @@
     <t>flow_dummy.xlsx</t>
   </si>
   <si>
-    <t>TAUDET</t>
-  </si>
-  <si>
     <t>XJBEG</t>
   </si>
   <si>
@@ -148,12 +131,6 @@
     <t>EXTERNAL_CURRENT</t>
   </si>
   <si>
-    <t>Length of the conductor</t>
-  </si>
-  <si>
-    <t>current flag: 0 = constant; 1 = exponential decay from taudet to taudum; -1 = read from file; -2 = external function for current and its derivative after taudum</t>
-  </si>
-  <si>
     <t>transport current at time = 0;</t>
   </si>
   <si>
@@ -172,9 +149,6 @@
     <t>end of the zone heated by joule effect in the putlet joint, if any</t>
   </si>
   <si>
-    <t xml:space="preserve"> maximum number of nodes for conductor spatial discretization</t>
-  </si>
-  <si>
     <t>OUTPUT</t>
   </si>
   <si>
@@ -244,9 +218,6 @@
     <t>fraction of the outer lateral surface of the conductor that is subjetced to convective heat exchange. Sould be in range [0,1].</t>
   </si>
   <si>
-    <t>Cavo_ENEA</t>
-  </si>
-  <si>
     <t>Diameter</t>
   </si>
   <si>
@@ -272,13 +243,94 @@
   </si>
   <si>
     <t>Height of the conductor (the vertical side); must coincide with the outer jacket or insulation height. Used only if flag Is_rectangular set to True.</t>
+  </si>
+  <si>
+    <t>EXTERNAL_CONTACT_PERIMETER</t>
+  </si>
+  <si>
+    <t>external file for variable contact perimeter. Valid extension .xlsx</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ZLENGTH</t>
+  </si>
+  <si>
+    <t>Length of the conductor along the z axis</t>
+  </si>
+  <si>
+    <t>I0_OP_MODE</t>
+  </si>
+  <si>
+    <t>current flag: 0 = constant; -1 = read from file; -2 = external function for current and its derivative after taudum</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>I0_OP_TOT</t>
+  </si>
+  <si>
+    <t>ELECTRIC_METHOD</t>
+  </si>
+  <si>
+    <t>flag to define the electric solution method: BE = Backward Euler; CN = Crank Nicholson</t>
+  </si>
+  <si>
+    <t>ELECTRIC_TIME_STEP</t>
+  </si>
+  <si>
+    <t>time step value for the electric transient solution. If None, uses the default value of dt_th/10, being dt_th the thermal time step.</t>
+  </si>
+  <si>
+    <t>EQUIPOTENTIAL_SURFACE_FLAG</t>
+  </si>
+  <si>
+    <t>Flag to define if there are equipotential surfaces. Possible values: TRUE = there are equipotential surfaces; FALSE = there are not equipotential surfaces. Defaults to TRUE</t>
+  </si>
+  <si>
+    <t>EQUIPOTENTIAL_SURFACE_NUMBER</t>
+  </si>
+  <si>
+    <t>The number of equipotential surfaces if EQUIPOTENTIAL_SURFACE_FLAG is true.</t>
+  </si>
+  <si>
+    <t>EQUIPOTENTIAL_SURFACE_COORDINATE</t>
+  </si>
+  <si>
+    <t>List of axial coordinates of the equipotential surfaces (cross section), separated by a comma. Ex, if at z = 0.5m z = 1.0m and z = 1.5m there are equipotential surfaces, write 0.5,1.0,1.5.</t>
+  </si>
+  <si>
+    <t>MAXIMUM_ITERATION_NUMBER</t>
+  </si>
+  <si>
+    <t>Maximum number of iteration allowed for iterative methods in the electric module.</t>
+  </si>
+  <si>
+    <t>INDUCTANCE_MODE</t>
+  </si>
+  <si>
+    <t>flag to select the method to evaluate the inductance. Possible values: 0 = analytical; 1 = approximated. Defaults to 1.</t>
+  </si>
+  <si>
+    <t>SELF_INDUCTANCE_MODE</t>
+  </si>
+  <si>
+    <t>flag to select the method to evaluate the self inductance. Possible values: 1 = mode 1; 2 = mode 2. Used only if flag INDUCTANCE_MODE is set to 1. Defaults to 2</t>
+  </si>
+  <si>
+    <t>ELECTRIC_SOLVER</t>
+  </si>
+  <si>
+    <t>Flag to select the solver for the electric module. Possible values: 0= steady state; 1 = transient. Defaults to 1. N.B. At the time being the steady solution is not availabye, althoug it works, to be consistent with the thermal hydrauilc solution.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,7 +348,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,21 +392,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -356,99 +414,73 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,248 +824,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="12">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9">
         <f>SUM(E2:AE2)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="C1" s="3"/>
       <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="12">
+      <c r="D2" s="18"/>
+      <c r="E2" s="9">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
         <f>[1]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="14" t="str">
+      <c r="B3" s="11" t="str">
         <f>[1]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="11" t="str">
         <f>[1]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="11" t="str">
         <f>[1]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>8</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>58</v>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1045,418 +1096,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D1443-3A2D-4AC0-948E-E6BCBD41CD63}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="10"/>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="str">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="str">
         <f>CONDUCTOR_files!A$1</f>
         <v>CONDUCTOR</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="17">
         <f>SUM(E2:AE2)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="17">
         <f>CONDUCTOR_files!E$1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E2" s="22">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="17">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="str">
         <f>CONDUCTOR_files!A$3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="20" t="str">
+      <c r="B3" s="16" t="str">
         <f>CONDUCTOR_files!B$3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="16" t="str">
         <f>CONDUCTOR_files!C$3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="20" t="str">
+      <c r="D3" s="16" t="str">
         <f>CONDUCTOR_files!D$3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="22" t="str">
+      <c r="E3" s="17" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="32">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="E9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="8">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="8">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>E$3</f>
+        <v>CONDUCTOR_1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>62</v>
+      <c r="D22" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1467,28 +1506,210 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686A283-62DF-44E8-BE94-5827D9E12853}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>CONDUCTOR_files!A1</f>
+        <v>CONDUCTOR</v>
+      </c>
+      <c r="B1">
+        <f>SUM(E2:U2)</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>CONDUCTOR_files!E1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>IF(E$1 &gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="str">
+        <f>CONDUCTOR_files!A3</f>
+        <v>Variable name</v>
+      </c>
+      <c r="B3" s="23" t="str">
+        <f>CONDUCTOR_files!B3</f>
+        <v>Unit</v>
+      </c>
+      <c r="C3" s="23" t="str">
+        <f>CONDUCTOR_files!C3</f>
+        <v>Variable type</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>CONDUCTOR_files!D3</f>
+        <v>Note/comments</v>
+      </c>
+      <c r="E3" s="23" t="str">
+        <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
+        <v>CONDUCTOR_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="str">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="str">
         <f>CONDUCTOR_files!E$3</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="str">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="str">
         <f>B1</f>
         <v>CONDUCTOR_1</v>
       </c>
@@ -1498,5 +1719,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
+++ b/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_2_ENEA_HTS_CICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B21E0-384E-4501-A0C4-CBB53B27F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D036935-FFB2-49A4-A6C7-A73C011DA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONDUCTOR_files" sheetId="6" r:id="rId1"/>
     <sheet name="CONDUCTOR_input" sheetId="10" r:id="rId2"/>
-    <sheet name="CONDUCTOR_opertation" sheetId="11" r:id="rId3"/>
+    <sheet name="CONDUCTOR_operation" sheetId="11" r:id="rId3"/>
     <sheet name="CONDUCTOR_coupling" sheetId="8" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D1443-3A2D-4AC0-948E-E6BCBD41CD63}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686A283-62DF-44E8-BE94-5827D9E12853}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
+++ b/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_2_ENEA_HTS_CICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D036935-FFB2-49A4-A6C7-A73C011DA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF480673-F555-4947-B3CF-443085E18A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONDUCTOR_files" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>m</t>
   </si>
@@ -80,30 +80,15 @@
     <t>EXTERNAL_HEAT</t>
   </si>
   <si>
-    <t>bfield.xlsx</t>
-  </si>
-  <si>
     <t>EXTERNAL_ALPHAB</t>
   </si>
   <si>
     <t>EXTERNAL_STRAIN</t>
   </si>
   <si>
-    <t>alphab_dummy.xlsx</t>
-  </si>
-  <si>
-    <t>strain_dummy.xlsx</t>
-  </si>
-  <si>
-    <t>Q_file_dummy.xlsx</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>I_file_dummy.xlsx</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>EXTERNAL_FLOW</t>
   </si>
   <si>
-    <t>flow_dummy.xlsx</t>
-  </si>
-  <si>
     <t>XJBEG</t>
   </si>
   <si>
@@ -186,9 +168,6 @@
   </si>
   <si>
     <t>EXTERNAL_GRID</t>
-  </si>
-  <si>
-    <t>spatial_discretization.xlsx</t>
   </si>
   <si>
     <t>custom file name, extension can be xlsx, dat, csv or tsv. Possibility to define a single file with the spatial discretizations for all the conducrors or a file for each conductor (in the last case use different names for the files). No need to have the same extension!</t>
@@ -392,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -407,10 +386,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -826,17 +801,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -844,10 +819,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8">
         <f>SUM(E2:AE2)</f>
         <v>1</v>
       </c>
@@ -857,234 +832,234 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="9">
+      <c r="D2" s="17"/>
+      <c r="E2" s="8">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="str">
+      <c r="A3" s="10" t="str">
         <f>[1]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f>[1]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <f>[1]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f>[1]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1116,386 +1091,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="15" t="str">
         <f>CONDUCTOR_files!A$1</f>
         <v>CONDUCTOR</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="16">
         <f>SUM(E2:AE2)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <f>CONDUCTOR_files!E$1</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="15" t="str">
         <f>CONDUCTOR_files!A$3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="15" t="str">
         <f>CONDUCTOR_files!B$3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="15" t="str">
         <f>CONDUCTOR_files!C$3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" s="15" t="str">
         <f>CONDUCTOR_files!D$3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="17" t="str">
+      <c r="E3" s="16" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>71</v>
+      <c r="A4" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>59</v>
+      <c r="A5" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>61</v>
+      <c r="A6" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>64</v>
+      <c r="A7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>76</v>
+      <c r="A10" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>38</v>
+      <c r="A17" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
+      <c r="A18" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="10" t="str">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9" t="str">
         <f>E$3</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>52</v>
+      <c r="A19" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>55</v>
+      <c r="A20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>56</v>
+      <c r="A21" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>45</v>
+      <c r="A22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>75</v>
+      <c r="C23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686A283-62DF-44E8-BE94-5827D9E12853}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1543,143 +1518,143 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="22" t="str">
         <f>CONDUCTOR_files!A3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="22" t="str">
         <f>CONDUCTOR_files!B3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="22" t="str">
         <f>CONDUCTOR_files!C3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="22" t="str">
         <f>CONDUCTOR_files!D3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="22" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E7" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1703,13 +1678,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="15" t="str">
         <f>CONDUCTOR_files!E$3</f>
         <v>CONDUCTOR_1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="str">
+      <c r="A2" s="15" t="str">
         <f>B1</f>
         <v>CONDUCTOR_1</v>
       </c>
